--- a/points.xlsx
+++ b/points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\repos\sat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C000567-961B-4F55-9D48-16664E58B8B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515BCA10-363C-4630-A3B7-7E64BCCCE6FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="30960" windowHeight="12204" xr2:uid="{A7565D24-3AAC-499E-AD64-12F804484286}"/>
+    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="30960" windowHeight="12204" xr2:uid="{A7565D24-3AAC-499E-AD64-12F804484286}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -75,13 +75,13 @@
     <t>sample text5</t>
   </si>
   <si>
-    <t>sample text6</t>
-  </si>
-  <si>
     <t>sample meteo text1</t>
   </si>
   <si>
     <t>sample meteo text2</t>
+  </si>
+  <si>
+    <t>sample text4</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
         <v>67.590294</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/points.xlsx
+++ b/points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\repos\sat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515BCA10-363C-4630-A3B7-7E64BCCCE6FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438DB202-5551-4855-B420-4BDF96BE04DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="30960" windowHeight="12204" xr2:uid="{A7565D24-3AAC-499E-AD64-12F804484286}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="30960" windowHeight="12204" xr2:uid="{A7565D24-3AAC-499E-AD64-12F804484286}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>a</t>
   </si>
@@ -57,41 +48,128 @@
     <t>Долгота (-180-180)</t>
   </si>
   <si>
-    <t>sample text1</t>
-  </si>
-  <si>
-    <t>sample text2</t>
-  </si>
-  <si>
-    <t>sample text3</t>
-  </si>
-  <si>
     <t>Точки</t>
   </si>
   <si>
     <t>Метеостанции</t>
   </si>
   <si>
-    <t>sample text5</t>
-  </si>
-  <si>
-    <t>sample meteo text1</t>
-  </si>
-  <si>
-    <t>sample meteo text2</t>
-  </si>
-  <si>
-    <t>sample text4</t>
+    <t>&lt;iframe width="1280" height="640" src="https://www.youtube.com/embed/k4pCKG0jAAY?list=PLi6CYDZHgX5DNKOgqEdK4joL7FZgns3kw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="1280" height="720" src="https://www.youtube.com/embed/pVU0y1uR2Tw?list=PLi6CYDZHgX5DNKOgqEdK4joL7FZgns3kw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="1280" height="720" src="https://www.youtube.com/embed/vvFBgEcWQp0?list=PLi6CYDZHgX5DNKOgqEdK4joL7FZgns3kw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="1280" height="720" src="https://www.youtube.com/embed/ObQ4QGTW3NU?list=PLi6CYDZHgX5DNKOgqEdK4joL7FZgns3kw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="1280" height="720" src="https://www.youtube.com/embed/mF0pl4n2dh0?list=PLi6CYDZHgX5DNKOgqEdK4joL7FZgns3kw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="1280" height="720" src="https://www.youtube.com/embed/GXjzZkfvabk?list=PLi6CYDZHgX5DNKOgqEdK4joL7FZgns3kw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="1280" height="720" src="https://www.youtube.com/embed/WRoBMtO0SaA?list=PLi6CYDZHgX5DNKOgqEdK4joL7FZgns3kw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="1280" height="720" src="https://www.youtube.com/embed/Ii-z-z-TSf0?list=PLi6CYDZHgX5DNKOgqEdK4joL7FZgns3kw" title="YouTube video player" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Ура-губа</t>
+  </si>
+  <si>
+    <t>Краснощелье</t>
+  </si>
+  <si>
+    <t>Каневка</t>
+  </si>
+  <si>
+    <t>Кепино</t>
+  </si>
+  <si>
+    <t>Несь</t>
+  </si>
+  <si>
+    <t>Коткино</t>
+  </si>
+  <si>
+    <t>Хорей вер</t>
+  </si>
+  <si>
+    <t>Сеяха</t>
+  </si>
+  <si>
+    <t>Антипаюта</t>
+  </si>
+  <si>
+    <t>Караул</t>
+  </si>
+  <si>
+    <t>Кресты таймырские</t>
+  </si>
+  <si>
+    <t>Волочанка</t>
+  </si>
+  <si>
+    <t>Усть-оленек</t>
+  </si>
+  <si>
+    <t>Быков мыс</t>
+  </si>
+  <si>
+    <t>Р.иhдигиpka</t>
+  </si>
+  <si>
+    <t>Андрюшкино</t>
+  </si>
+  <si>
+    <t>Константиновская</t>
+  </si>
+  <si>
+    <t>Островное</t>
+  </si>
+  <si>
+    <t>Билибино</t>
+  </si>
+  <si>
+    <t>Илирней</t>
+  </si>
+  <si>
+    <t>Певек</t>
+  </si>
+  <si>
+    <t>Чаун</t>
+  </si>
+  <si>
+    <t>Эньмувеем</t>
+  </si>
+  <si>
+    <t>Канчалан</t>
+  </si>
+  <si>
+    <t>Анадырь</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,18 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B45AC9A-B358-4A52-BFB6-8DFEEAC32FED}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -463,7 +541,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -480,13 +558,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69.73</v>
+        <v>69.86</v>
       </c>
       <c r="C3">
-        <v>53.35</v>
+        <v>46.25</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -494,13 +572,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>74.459999999999994</v>
+        <v>72.58</v>
       </c>
       <c r="C4">
-        <v>80.59</v>
+        <v>64.27</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -508,13 +586,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.36</v>
+        <v>77.81</v>
       </c>
       <c r="C5">
-        <v>159.87</v>
+        <v>104.12</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -522,13 +600,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>73.73</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>121.37</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -536,58 +614,423 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>76.618251000000001</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="C7">
-        <v>67.590294</v>
+        <v>134.38</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>72.31</v>
+      </c>
+      <c r="C8">
+        <v>149.76</v>
+      </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>158.24</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="C10">
+        <v>170.27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>69.28</v>
+      </c>
+      <c r="C12">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>70</v>
-      </c>
-      <c r="C10">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B13">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="C13">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>67.13</v>
+      </c>
+      <c r="C14">
+        <v>39.67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>65.38</v>
+      </c>
+      <c r="C15">
+        <v>41.83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C16">
+        <v>44.68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>67.03</v>
+      </c>
+      <c r="C17">
+        <v>51.13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="C18">
+        <v>58.02</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>70.17</v>
+      </c>
+      <c r="C19">
+        <v>72.52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>69.08</v>
+      </c>
+      <c r="C20">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>70.08</v>
+      </c>
+      <c r="C21">
+        <v>83.17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>70.86</v>
+      </c>
+      <c r="C22">
+        <v>89.9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>70.97</v>
+      </c>
+      <c r="C23">
+        <v>94.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>73</v>
+      </c>
+      <c r="C24">
+        <v>119.87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>14</v>
       </c>
+      <c r="B25">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>129.12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="C26">
+        <v>150.28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>69.17</v>
+      </c>
+      <c r="C27">
+        <v>154.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>68.150000000000006</v>
+      </c>
+      <c r="C28">
+        <v>161.16999999999999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>68.12</v>
+      </c>
+      <c r="C29">
+        <v>164.17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>68.05</v>
+      </c>
+      <c r="C30">
+        <v>166.45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>67.25</v>
+      </c>
+      <c r="C31">
+        <v>167.97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>69.7</v>
+      </c>
+      <c r="C32">
+        <v>170.25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>68.88</v>
+      </c>
+      <c r="C33">
+        <v>170.78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>66.38</v>
+      </c>
+      <c r="C34">
+        <v>173.33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="C35">
+        <v>176.77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>64.78</v>
+      </c>
+      <c r="C36">
+        <v>177.56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>